--- a/quality_result.xlsx
+++ b/quality_result.xlsx
@@ -506,37 +506,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0031481838418425</v>
+        <v>0.000597134510217425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229881669104336</v>
+        <v>0.0004988718692955702</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8792919042921877</v>
+        <v>0.0004232852224326051</v>
       </c>
       <c r="E2" t="n">
-        <v>1.913793429252788</v>
+        <v>0.0004497405488346429</v>
       </c>
       <c r="F2" t="n">
-        <v>3.535727918305952</v>
+        <v>0.0004232852224326051</v>
       </c>
       <c r="G2" t="n">
-        <v>5.473191306023878</v>
+        <v>0.000495092536952422</v>
       </c>
       <c r="H2" t="n">
-        <v>7.985033843921133</v>
+        <v>0.000408167893060012</v>
       </c>
       <c r="I2" t="n">
-        <v>10.7047623366856</v>
+        <v>0.0005026512016387185</v>
       </c>
       <c r="J2" t="n">
-        <v>13.6498788723984</v>
+        <v>0.000393050563687419</v>
       </c>
       <c r="K2" t="n">
-        <v>17.87722083016814</v>
+        <v>0.0004384025518051981</v>
       </c>
       <c r="L2" t="n">
-        <v>21.90842677732552</v>
+        <v>0.0004270645547757533</v>
       </c>
     </row>
     <row r="3">
@@ -546,37 +546,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006217001704478886</v>
+        <v>9.826264092185475e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6738587361156778</v>
+        <v>9.448330857870649e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>2.583283257179787</v>
+        <v>0.0001322766320101891</v>
       </c>
       <c r="E3" t="n">
-        <v>5.623272372702639</v>
+        <v>0.0001436146290396339</v>
       </c>
       <c r="F3" t="n">
-        <v>10.39576034497746</v>
+        <v>0.0001738492877848199</v>
       </c>
       <c r="G3" t="n">
-        <v>16.07792227425103</v>
+        <v>0.0001700699554416717</v>
       </c>
       <c r="H3" t="n">
-        <v>23.46409067374158</v>
+        <v>0.000102041973265003</v>
       </c>
       <c r="I3" t="n">
-        <v>31.45918510036017</v>
+        <v>0.0001058213056081513</v>
       </c>
       <c r="J3" t="n">
-        <v>40.10375023148411</v>
+        <v>0.0001738492877848199</v>
       </c>
       <c r="K3" t="n">
-        <v>52.52757967777413</v>
+        <v>0.0001398352966964856</v>
       </c>
       <c r="L3" t="n">
-        <v>64.37837919553132</v>
+        <v>0.0001511732937259304</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +586,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002925203233596753</v>
+        <v>0.0003476985755696399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196869201086936</v>
+        <v>0.0004686372105503842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7496683635868887</v>
+        <v>0.0006387071659920558</v>
       </c>
       <c r="E4" t="n">
-        <v>1.631889250445016</v>
+        <v>0.0009523917504733614</v>
       </c>
       <c r="F4" t="n">
-        <v>3.015578407918457</v>
+        <v>0.0008276737831494688</v>
       </c>
       <c r="G4" t="n">
-        <v>4.659467038552969</v>
+        <v>0.000714293812855021</v>
       </c>
       <c r="H4" t="n">
-        <v>6.804714339164843</v>
+        <v>0.0006576038277077971</v>
       </c>
       <c r="I4" t="n">
-        <v>9.123315835024584</v>
+        <v>0.0007445284716002071</v>
       </c>
       <c r="J4" t="n">
-        <v>11.61968200697665</v>
+        <v>0.0004195058900894568</v>
       </c>
       <c r="K4" t="n">
-        <v>15.22420133259258</v>
+        <v>0.0009788470768753992</v>
       </c>
       <c r="L4" t="n">
-        <v>18.66200674988756</v>
+        <v>0.001009081735620585</v>
       </c>
     </row>
     <row r="5">
@@ -626,37 +626,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003597924390677143</v>
+        <v>0.0003099052521381573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2729244851604515</v>
+        <v>0.0004421818841483464</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0485946552682</v>
+        <v>0.0003476985755696399</v>
       </c>
       <c r="E5" t="n">
-        <v>2.276397691583805</v>
+        <v>0.0003892712313442707</v>
       </c>
       <c r="F5" t="n">
-        <v>4.214118073901065</v>
+        <v>0.0004459612164914946</v>
       </c>
       <c r="G5" t="n">
-        <v>6.509937754396308</v>
+        <v>0.0004875338722661254</v>
       </c>
       <c r="H5" t="n">
-        <v>9.507556775020126</v>
+        <v>0.0005593411867859424</v>
       </c>
       <c r="I5" t="n">
-        <v>12.74959277694003</v>
+        <v>0.0004648578782072359</v>
       </c>
       <c r="J5" t="n">
-        <v>16.23947361459125</v>
+        <v>0.0005177685310113116</v>
       </c>
       <c r="K5" t="n">
-        <v>21.2628034331455</v>
+        <v>0.0004043885607168638</v>
       </c>
       <c r="L5" t="n">
-        <v>26.0632131127715</v>
+        <v>0.0004043885607168638</v>
       </c>
     </row>
     <row r="6">
@@ -666,37 +666,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004988718692955703</v>
+        <v>0.0001398352966964856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5149491490833229</v>
+        <v>9.070397623555823e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>1.980011111237089</v>
+        <v>0.0001965252818437095</v>
       </c>
       <c r="E6" t="n">
-        <v>4.30461418685775</v>
+        <v>0.0001436146290396339</v>
       </c>
       <c r="F6" t="n">
-        <v>7.957146150561042</v>
+        <v>0.0001625112907553752</v>
       </c>
       <c r="G6" t="n">
-        <v>12.31761131078584</v>
+        <v>0.0001625112907553752</v>
       </c>
       <c r="H6" t="n">
-        <v>17.96993163187791</v>
+        <v>0.0001284972996670408</v>
       </c>
       <c r="I6" t="n">
-        <v>24.09402223003284</v>
+        <v>0.0001814079524711165</v>
       </c>
       <c r="J6" t="n">
-        <v>30.69855289364581</v>
+        <v>0.0002078632788731543</v>
       </c>
       <c r="K6" t="n">
-        <v>40.21219061440606</v>
+        <v>0.0002003046141868578</v>
       </c>
       <c r="L6" t="n">
-        <v>49.28625419033474</v>
+        <v>0.0001549526260690786</v>
       </c>
     </row>
     <row r="7">
@@ -706,37 +706,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003291798470882134</v>
+        <v>0.0002003046141868578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3318027037343583</v>
+        <v>0.000291008590422416</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2679886771203</v>
+        <v>0.0002418772699614886</v>
       </c>
       <c r="E7" t="n">
-        <v>2.753251170648193</v>
+        <v>0.0003250225815107503</v>
       </c>
       <c r="F7" t="n">
-        <v>5.093024486294251</v>
+        <v>0.0002834499257361195</v>
       </c>
       <c r="G7" t="n">
-        <v>7.879280566295158</v>
+        <v>0.0004761958752366807</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5073791464</v>
+        <v>0.0003817125666579742</v>
       </c>
       <c r="I7" t="n">
-        <v>15.42342883706164</v>
+        <v>0.0003741539019716777</v>
       </c>
       <c r="J7" t="n">
-        <v>19.65718810115005</v>
+        <v>0.0003099052521381573</v>
       </c>
       <c r="K7" t="n">
-        <v>25.7365918736796</v>
+        <v>0.0002229806082457473</v>
       </c>
       <c r="L7" t="n">
-        <v>31.55088682033432</v>
+        <v>0.000291008590422416</v>
       </c>
     </row>
     <row r="8">
@@ -746,37 +746,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003291798470882134</v>
+        <v>0.0002003046141868578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3318027037343583</v>
+        <v>0.000291008590422416</v>
       </c>
       <c r="D8" t="n">
-        <v>1.2679886771203</v>
+        <v>0.0002418772699614886</v>
       </c>
       <c r="E8" t="n">
-        <v>2.753251170648193</v>
+        <v>0.0003250225815107503</v>
       </c>
       <c r="F8" t="n">
-        <v>5.093024486294251</v>
+        <v>0.0002834499257361195</v>
       </c>
       <c r="G8" t="n">
-        <v>7.879280566295158</v>
+        <v>0.0004761958752366807</v>
       </c>
       <c r="H8" t="n">
-        <v>11.5073791464</v>
+        <v>0.0003817125666579742</v>
       </c>
       <c r="I8" t="n">
-        <v>15.42342883706164</v>
+        <v>0.0003741539019716777</v>
       </c>
       <c r="J8" t="n">
-        <v>19.65718810115005</v>
+        <v>0.0003099052521381573</v>
       </c>
       <c r="K8" t="n">
-        <v>25.7365918736796</v>
+        <v>0.0002229806082457473</v>
       </c>
       <c r="L8" t="n">
-        <v>31.55088682033432</v>
+        <v>0.000291008590422416</v>
       </c>
     </row>
     <row r="9">
@@ -786,37 +786,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004988718692955703</v>
+        <v>0.0001398352966964856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5149491490833229</v>
+        <v>9.070397623555823e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1.980011111237089</v>
+        <v>0.0001965252818437095</v>
       </c>
       <c r="E9" t="n">
-        <v>4.30461418685775</v>
+        <v>0.0001436146290396339</v>
       </c>
       <c r="F9" t="n">
-        <v>7.957146150561042</v>
+        <v>0.0001625112907553752</v>
       </c>
       <c r="G9" t="n">
-        <v>12.31761131078584</v>
+        <v>0.0001625112907553752</v>
       </c>
       <c r="H9" t="n">
-        <v>17.96993163187791</v>
+        <v>0.0001284972996670408</v>
       </c>
       <c r="I9" t="n">
-        <v>24.09402223003284</v>
+        <v>0.0001814079524711165</v>
       </c>
       <c r="J9" t="n">
-        <v>30.69855289364581</v>
+        <v>0.0002078632788731543</v>
       </c>
       <c r="K9" t="n">
-        <v>40.21219061440606</v>
+        <v>0.0002003046141868578</v>
       </c>
       <c r="L9" t="n">
-        <v>49.28625419033474</v>
+        <v>0.0001549526260690786</v>
       </c>
     </row>
     <row r="10">
@@ -826,37 +826,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003597924390677143</v>
+        <v>0.0003099052521381573</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2729244851604515</v>
+        <v>0.0004421818841483464</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0485946552682</v>
+        <v>0.0003476985755696399</v>
       </c>
       <c r="E10" t="n">
-        <v>2.276397691583805</v>
+        <v>0.0003892712313442707</v>
       </c>
       <c r="F10" t="n">
-        <v>4.214118073901065</v>
+        <v>0.0004459612164914946</v>
       </c>
       <c r="G10" t="n">
-        <v>6.509937754396308</v>
+        <v>0.0004875338722661254</v>
       </c>
       <c r="H10" t="n">
-        <v>9.507556775020126</v>
+        <v>0.0005593411867859424</v>
       </c>
       <c r="I10" t="n">
-        <v>12.74959277694003</v>
+        <v>0.0004648578782072359</v>
       </c>
       <c r="J10" t="n">
-        <v>16.23947361459125</v>
+        <v>0.0005177685310113116</v>
       </c>
       <c r="K10" t="n">
-        <v>21.2628034331455</v>
+        <v>0.0004043885607168638</v>
       </c>
       <c r="L10" t="n">
-        <v>26.0632131127715</v>
+        <v>0.0004043885607168638</v>
       </c>
     </row>
     <row r="11">
@@ -866,37 +866,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003597924390677143</v>
+        <v>0.0003099052521381573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2729244851604515</v>
+        <v>0.0004421818841483464</v>
       </c>
       <c r="D11" t="n">
-        <v>1.0485946552682</v>
+        <v>0.0003476985755696399</v>
       </c>
       <c r="E11" t="n">
-        <v>2.276397691583805</v>
+        <v>0.0003892712313442707</v>
       </c>
       <c r="F11" t="n">
-        <v>4.214118073901065</v>
+        <v>0.0004459612164914946</v>
       </c>
       <c r="G11" t="n">
-        <v>6.509937754396308</v>
+        <v>0.0004875338722661254</v>
       </c>
       <c r="H11" t="n">
-        <v>9.507556775020126</v>
+        <v>0.0005593411867859424</v>
       </c>
       <c r="I11" t="n">
-        <v>12.74959277694003</v>
+        <v>0.0004648578782072359</v>
       </c>
       <c r="J11" t="n">
-        <v>16.23947361459125</v>
+        <v>0.0005177685310113116</v>
       </c>
       <c r="K11" t="n">
-        <v>21.2628034331455</v>
+        <v>0.0004043885607168638</v>
       </c>
       <c r="L11" t="n">
-        <v>26.0632131127715</v>
+        <v>0.0004043885607168638</v>
       </c>
     </row>
     <row r="12">
@@ -906,37 +906,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006217001704478886</v>
+        <v>9.826264092185475e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6738587361156778</v>
+        <v>9.448330857870649e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>2.583283257179787</v>
+        <v>0.0001322766320101891</v>
       </c>
       <c r="E12" t="n">
-        <v>5.623272372702639</v>
+        <v>0.0001436146290396339</v>
       </c>
       <c r="F12" t="n">
-        <v>10.39576034497746</v>
+        <v>0.0001738492877848199</v>
       </c>
       <c r="G12" t="n">
-        <v>16.07792227425103</v>
+        <v>0.0001700699554416717</v>
       </c>
       <c r="H12" t="n">
-        <v>23.46409067374158</v>
+        <v>0.000102041973265003</v>
       </c>
       <c r="I12" t="n">
-        <v>31.45918510036017</v>
+        <v>0.0001058213056081513</v>
       </c>
       <c r="J12" t="n">
-        <v>40.10375023148411</v>
+        <v>0.0001738492877848199</v>
       </c>
       <c r="K12" t="n">
-        <v>52.52757967777413</v>
+        <v>0.0001398352966964856</v>
       </c>
       <c r="L12" t="n">
-        <v>64.37837919553132</v>
+        <v>0.0001511732937259304</v>
       </c>
     </row>
     <row r="13">
@@ -946,37 +946,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0031481838418425</v>
+        <v>0.000597134510217425</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229881669104336</v>
+        <v>0.0004988718692955702</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8792919042921877</v>
+        <v>0.0004232852224326051</v>
       </c>
       <c r="E13" t="n">
-        <v>1.913793429252788</v>
+        <v>0.0004497405488346429</v>
       </c>
       <c r="F13" t="n">
-        <v>3.535727918305952</v>
+        <v>0.0004232852224326051</v>
       </c>
       <c r="G13" t="n">
-        <v>5.473191306023878</v>
+        <v>0.000495092536952422</v>
       </c>
       <c r="H13" t="n">
-        <v>7.985033843921133</v>
+        <v>0.000408167893060012</v>
       </c>
       <c r="I13" t="n">
-        <v>10.7047623366856</v>
+        <v>0.0005026512016387185</v>
       </c>
       <c r="J13" t="n">
-        <v>13.6498788723984</v>
+        <v>0.000393050563687419</v>
       </c>
       <c r="K13" t="n">
-        <v>17.87722083016814</v>
+        <v>0.0004384025518051981</v>
       </c>
       <c r="L13" t="n">
-        <v>21.90842677732552</v>
+        <v>0.0004270645547757533</v>
       </c>
     </row>
     <row r="14">
@@ -986,37 +986,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003597924390677143</v>
+        <v>0.0003099052521381573</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2729244851604515</v>
+        <v>0.0004421818841483464</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0485946552682</v>
+        <v>0.0003476985755696399</v>
       </c>
       <c r="E14" t="n">
-        <v>2.276397691583805</v>
+        <v>0.0003892712313442707</v>
       </c>
       <c r="F14" t="n">
-        <v>4.214118073901065</v>
+        <v>0.0004459612164914946</v>
       </c>
       <c r="G14" t="n">
-        <v>6.509937754396308</v>
+        <v>0.0004875338722661254</v>
       </c>
       <c r="H14" t="n">
-        <v>9.507556775020126</v>
+        <v>0.0005593411867859424</v>
       </c>
       <c r="I14" t="n">
-        <v>12.74959277694003</v>
+        <v>0.0004648578782072359</v>
       </c>
       <c r="J14" t="n">
-        <v>16.23947361459125</v>
+        <v>0.0005177685310113116</v>
       </c>
       <c r="K14" t="n">
-        <v>21.2628034331455</v>
+        <v>0.0004043885607168638</v>
       </c>
       <c r="L14" t="n">
-        <v>26.0632131127715</v>
+        <v>0.0004043885607168638</v>
       </c>
     </row>
     <row r="15">
@@ -1026,37 +1026,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0031481838418425</v>
+        <v>0.000597134510217425</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229881669104336</v>
+        <v>0.0004988718692955702</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8792919042921877</v>
+        <v>0.0004232852224326051</v>
       </c>
       <c r="E15" t="n">
-        <v>1.913793429252788</v>
+        <v>0.0004497405488346429</v>
       </c>
       <c r="F15" t="n">
-        <v>3.535727918305952</v>
+        <v>0.0004232852224326051</v>
       </c>
       <c r="G15" t="n">
-        <v>5.473191306023878</v>
+        <v>0.000495092536952422</v>
       </c>
       <c r="H15" t="n">
-        <v>7.985033843921133</v>
+        <v>0.000408167893060012</v>
       </c>
       <c r="I15" t="n">
-        <v>10.7047623366856</v>
+        <v>0.0005026512016387185</v>
       </c>
       <c r="J15" t="n">
-        <v>13.6498788723984</v>
+        <v>0.000393050563687419</v>
       </c>
       <c r="K15" t="n">
-        <v>17.87722083016814</v>
+        <v>0.0004384025518051981</v>
       </c>
       <c r="L15" t="n">
-        <v>21.90842677732552</v>
+        <v>0.0004270645547757533</v>
       </c>
     </row>
     <row r="16">
@@ -1066,37 +1066,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0031481838418425</v>
+        <v>0.000597134510217425</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229881669104336</v>
+        <v>0.0004988718692955702</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8792919042921877</v>
+        <v>0.0004232852224326051</v>
       </c>
       <c r="E16" t="n">
-        <v>1.913793429252788</v>
+        <v>0.0004497405488346429</v>
       </c>
       <c r="F16" t="n">
-        <v>3.535727918305952</v>
+        <v>0.0004232852224326051</v>
       </c>
       <c r="G16" t="n">
-        <v>5.473191306023878</v>
+        <v>0.000495092536952422</v>
       </c>
       <c r="H16" t="n">
-        <v>7.985033843921133</v>
+        <v>0.000408167893060012</v>
       </c>
       <c r="I16" t="n">
-        <v>10.7047623366856</v>
+        <v>0.0005026512016387185</v>
       </c>
       <c r="J16" t="n">
-        <v>13.6498788723984</v>
+        <v>0.000393050563687419</v>
       </c>
       <c r="K16" t="n">
-        <v>17.87722083016814</v>
+        <v>0.0004384025518051981</v>
       </c>
       <c r="L16" t="n">
-        <v>21.90842677732552</v>
+        <v>0.0004270645547757533</v>
       </c>
     </row>
   </sheetData>
@@ -1182,37 +1182,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115.4423253394761</v>
+        <v>122.6622044839998</v>
       </c>
       <c r="C2" t="n">
-        <v>96.8078827774477</v>
+        <v>123.4430360414855</v>
       </c>
       <c r="D2" t="n">
-        <v>90.98159544910553</v>
+        <v>124.1565951268422</v>
       </c>
       <c r="E2" t="n">
-        <v>87.60397560346456</v>
+        <v>123.8933057396187</v>
       </c>
       <c r="F2" t="n">
-        <v>84.93813781750816</v>
+        <v>124.1565951268422</v>
       </c>
       <c r="G2" t="n">
-        <v>83.04051991077284</v>
+        <v>123.4760623969863</v>
       </c>
       <c r="H2" t="n">
-        <v>81.40015858304055</v>
+        <v>124.3145377986745</v>
       </c>
       <c r="I2" t="n">
-        <v>80.12715589818208</v>
+        <v>123.4102589438731</v>
       </c>
       <c r="J2" t="n">
-        <v>79.07163821994615</v>
+        <v>124.4784419605562</v>
       </c>
       <c r="K2" t="n">
-        <v>77.89992614660703</v>
+        <v>124.0041954612748</v>
       </c>
       <c r="L2" t="n">
-        <v>77.01681427085661</v>
+        <v>124.1179909187098</v>
       </c>
     </row>
     <row r="3">
@@ -1222,37 +1222,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.3843817952934</v>
+        <v>130.3963073384452</v>
       </c>
       <c r="C3" t="n">
-        <v>92.03450302895369</v>
+        <v>130.566640731433</v>
       </c>
       <c r="D3" t="n">
-        <v>86.19847136762556</v>
+        <v>129.1053603746506</v>
       </c>
       <c r="E3" t="n">
-        <v>82.82030046159275</v>
+        <v>128.7482048519852</v>
       </c>
       <c r="F3" t="n">
-        <v>80.1516290687694</v>
+        <v>127.9184625013376</v>
       </c>
       <c r="G3" t="n">
-        <v>78.25789241150657</v>
+        <v>128.0139156803999</v>
       </c>
       <c r="H3" t="n">
-        <v>76.61615437718629</v>
+        <v>130.2324031765635</v>
       </c>
       <c r="I3" t="n">
-        <v>75.34271697233223</v>
+        <v>130.0744605047311</v>
       </c>
       <c r="J3" t="n">
-        <v>74.28834179163647</v>
+        <v>127.9184625013376</v>
       </c>
       <c r="K3" t="n">
-        <v>73.11631775762096</v>
+        <v>128.8640235774834</v>
       </c>
       <c r="L3" t="n">
-        <v>72.23279127373233</v>
+        <v>128.5254409048737</v>
       </c>
     </row>
     <row r="4">
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.9535071894054</v>
+        <v>125.2030385227788</v>
       </c>
       <c r="C4" t="n">
-        <v>97.67328984883896</v>
+        <v>123.906699944612</v>
       </c>
       <c r="D4" t="n">
-        <v>91.8663758000436</v>
+        <v>122.5620497500976</v>
       </c>
       <c r="E4" t="n">
-        <v>88.48816082120855</v>
+        <v>120.8269113884189</v>
       </c>
       <c r="F4" t="n">
-        <v>85.82136138748527</v>
+        <v>121.4364756478331</v>
       </c>
       <c r="G4" t="n">
-        <v>83.93170519927492</v>
+        <v>122.0762987545019</v>
       </c>
       <c r="H4" t="n">
-        <v>82.2869686546544</v>
+        <v>122.4354243134083</v>
       </c>
       <c r="I4" t="n">
-        <v>81.01354054049094</v>
+        <v>121.8962545346184</v>
       </c>
       <c r="J4" t="n">
-        <v>79.96312520788548</v>
+        <v>124.3876870083677</v>
       </c>
       <c r="K4" t="n">
-        <v>78.78972245125213</v>
+        <v>120.7079191554218</v>
       </c>
       <c r="L4" t="n">
-        <v>77.90548421600873</v>
+        <v>120.5758041825886</v>
       </c>
     </row>
     <row r="5">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.7971811006981</v>
+        <v>125.4454120607057</v>
       </c>
       <c r="C5" t="n">
-        <v>95.99727642870565</v>
+        <v>123.9016919670813</v>
       </c>
       <c r="D5" t="n">
-        <v>90.15162502838636</v>
+        <v>124.9456723110873</v>
       </c>
       <c r="E5" t="n">
-        <v>86.78522006070946</v>
+        <v>124.4551783374912</v>
       </c>
       <c r="F5" t="n">
-        <v>84.11063442816624</v>
+        <v>123.8647305114816</v>
       </c>
       <c r="G5" t="n">
-        <v>82.2219330657871</v>
+        <v>123.4776534815504</v>
       </c>
       <c r="H5" t="n">
-        <v>80.5770121509412</v>
+        <v>122.8809334305933</v>
       </c>
       <c r="I5" t="n">
-        <v>79.30273829015029</v>
+        <v>123.6844994701489</v>
       </c>
       <c r="J5" t="n">
-        <v>78.251981946687</v>
+        <v>123.2163449129788</v>
       </c>
       <c r="K5" t="n">
-        <v>77.08149618293022</v>
+        <v>124.2897128076908</v>
       </c>
       <c r="L5" t="n">
-        <v>76.19742187439419</v>
+        <v>124.2897128076908</v>
       </c>
     </row>
     <row r="6">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113.3404981526161</v>
+        <v>128.8642202240047</v>
       </c>
       <c r="C6" t="n">
-        <v>93.20274485776189</v>
+        <v>130.7441250475586</v>
       </c>
       <c r="D6" t="n">
-        <v>87.35371203216982</v>
+        <v>127.3862040283266</v>
       </c>
       <c r="E6" t="n">
-        <v>83.98104597946953</v>
+        <v>128.7484014985065</v>
       </c>
       <c r="F6" t="n">
-        <v>81.3128149570605</v>
+        <v>128.2115529088788</v>
       </c>
       <c r="G6" t="n">
-        <v>79.4151233505596</v>
+        <v>128.2115529088788</v>
       </c>
       <c r="H6" t="n">
-        <v>77.77492405815518</v>
+        <v>129.2314482942521</v>
       </c>
       <c r="I6" t="n">
-        <v>76.50129523915535</v>
+        <v>127.7338250909187</v>
       </c>
       <c r="J6" t="n">
-        <v>75.44920926968338</v>
+        <v>127.1426105697322</v>
       </c>
       <c r="K6" t="n">
-        <v>74.27681098080869</v>
+        <v>127.3034787686667</v>
       </c>
       <c r="L6" t="n">
-        <v>73.39313018068184</v>
+        <v>128.4183988974773</v>
       </c>
     </row>
     <row r="7">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.1813502457589</v>
+        <v>127.3387730998277</v>
       </c>
       <c r="C7" t="n">
-        <v>95.1468834312997</v>
+        <v>125.7166245441108</v>
       </c>
       <c r="D7" t="n">
-        <v>89.32452888331628</v>
+        <v>126.5197320559967</v>
       </c>
       <c r="E7" t="n">
-        <v>85.95722431181363</v>
+        <v>125.2365472833999</v>
       </c>
       <c r="F7" t="n">
-        <v>83.2859249954714</v>
+        <v>125.8309191619186</v>
       </c>
       <c r="G7" t="n">
-        <v>81.39081698573078</v>
+        <v>123.5778263446599</v>
       </c>
       <c r="H7" t="n">
-        <v>79.74591841221549</v>
+        <v>124.5383180580092</v>
       </c>
       <c r="I7" t="n">
-        <v>78.47387329741426</v>
+        <v>124.6251798498601</v>
       </c>
       <c r="J7" t="n">
-        <v>77.42046870252538</v>
+        <v>125.4433932719984</v>
       </c>
       <c r="K7" t="n">
-        <v>76.25017228098214</v>
+        <v>126.8730116794141</v>
       </c>
       <c r="L7" t="n">
-        <v>75.36556692997775</v>
+        <v>125.7166245441108</v>
       </c>
     </row>
     <row r="8">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>115.1773196761593</v>
+        <v>127.3347425302281</v>
       </c>
       <c r="C8" t="n">
-        <v>95.14285286170008</v>
+        <v>125.7125939745111</v>
       </c>
       <c r="D8" t="n">
-        <v>89.32049831371666</v>
+        <v>126.5157014863971</v>
       </c>
       <c r="E8" t="n">
-        <v>85.95319374221401</v>
+        <v>125.2325167138003</v>
       </c>
       <c r="F8" t="n">
-        <v>83.28189442587177</v>
+        <v>125.8268885923189</v>
       </c>
       <c r="G8" t="n">
-        <v>81.38678641613114</v>
+        <v>123.5737957750603</v>
       </c>
       <c r="H8" t="n">
-        <v>79.74188784261587</v>
+        <v>124.5342874884095</v>
       </c>
       <c r="I8" t="n">
-        <v>78.46984272781464</v>
+        <v>124.6211492802605</v>
       </c>
       <c r="J8" t="n">
-        <v>77.41643813292576</v>
+        <v>125.4393627023988</v>
       </c>
       <c r="K8" t="n">
-        <v>76.24614171138251</v>
+        <v>126.8689811098145</v>
       </c>
       <c r="L8" t="n">
-        <v>75.36153636037811</v>
+        <v>125.7125939745111</v>
       </c>
     </row>
     <row r="9">
@@ -1462,37 +1462,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>113.3024435681208</v>
+        <v>128.8261656395094</v>
       </c>
       <c r="C9" t="n">
-        <v>93.1646902732666</v>
+        <v>130.7060704630633</v>
       </c>
       <c r="D9" t="n">
-        <v>87.31565744767452</v>
+        <v>127.3481494438313</v>
       </c>
       <c r="E9" t="n">
-        <v>83.94299139497426</v>
+        <v>128.7103469140112</v>
       </c>
       <c r="F9" t="n">
-        <v>81.27476037256521</v>
+        <v>128.1734983243834</v>
       </c>
       <c r="G9" t="n">
-        <v>79.3770687660643</v>
+        <v>128.1734983243834</v>
       </c>
       <c r="H9" t="n">
-        <v>77.73686947365989</v>
+        <v>129.1933937097567</v>
       </c>
       <c r="I9" t="n">
-        <v>76.46324065466005</v>
+        <v>127.6957705064235</v>
       </c>
       <c r="J9" t="n">
-        <v>75.41115468518809</v>
+        <v>127.1045559852369</v>
       </c>
       <c r="K9" t="n">
-        <v>74.23875639631338</v>
+        <v>127.2654241841714</v>
       </c>
       <c r="L9" t="n">
-        <v>73.35507559618654</v>
+        <v>128.3803443129819</v>
       </c>
     </row>
     <row r="10">
@@ -1502,37 +1502,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114.9777546399999</v>
+        <v>125.6259856000075</v>
       </c>
       <c r="C10" t="n">
-        <v>96.17784996800738</v>
+        <v>124.082265506383</v>
       </c>
       <c r="D10" t="n">
-        <v>90.33219856768811</v>
+        <v>125.1262458503891</v>
       </c>
       <c r="E10" t="n">
-        <v>86.96579360001121</v>
+        <v>124.6357518767929</v>
       </c>
       <c r="F10" t="n">
-        <v>84.29120796746795</v>
+        <v>124.0453040507834</v>
       </c>
       <c r="G10" t="n">
-        <v>82.40250660508885</v>
+        <v>123.6582270208521</v>
       </c>
       <c r="H10" t="n">
-        <v>80.75758569024293</v>
+        <v>123.061506969895</v>
       </c>
       <c r="I10" t="n">
-        <v>79.48331182945202</v>
+        <v>123.8650730094506</v>
       </c>
       <c r="J10" t="n">
-        <v>78.43255548598873</v>
+        <v>123.3969184522805</v>
       </c>
       <c r="K10" t="n">
-        <v>77.26206972223196</v>
+        <v>124.4702863469925</v>
       </c>
       <c r="L10" t="n">
-        <v>76.37799541369594</v>
+        <v>124.4702863469925</v>
       </c>
     </row>
     <row r="11">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114.7806396456405</v>
+        <v>125.4288706056481</v>
       </c>
       <c r="C11" t="n">
-        <v>95.98073497364797</v>
+        <v>123.8851505120236</v>
       </c>
       <c r="D11" t="n">
-        <v>90.1350835733287</v>
+        <v>124.9291308560297</v>
       </c>
       <c r="E11" t="n">
-        <v>86.76867860565179</v>
+        <v>124.4386368824335</v>
       </c>
       <c r="F11" t="n">
-        <v>84.09409297310856</v>
+        <v>123.8481890564239</v>
       </c>
       <c r="G11" t="n">
-        <v>82.20539161072942</v>
+        <v>123.4611120264927</v>
       </c>
       <c r="H11" t="n">
-        <v>80.56047069588352</v>
+        <v>122.8643919755356</v>
       </c>
       <c r="I11" t="n">
-        <v>79.28619683509261</v>
+        <v>123.6679580150912</v>
       </c>
       <c r="J11" t="n">
-        <v>78.23544049162932</v>
+        <v>123.1998034579211</v>
       </c>
       <c r="K11" t="n">
-        <v>77.06495472787255</v>
+        <v>124.2731713526331</v>
       </c>
       <c r="L11" t="n">
-        <v>76.18088041933652</v>
+        <v>124.2731713526331</v>
       </c>
     </row>
     <row r="12">
@@ -1582,37 +1582,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>112.3799482369344</v>
+        <v>130.3918737800862</v>
       </c>
       <c r="C12" t="n">
-        <v>92.03006947059471</v>
+        <v>130.562207173074</v>
       </c>
       <c r="D12" t="n">
-        <v>86.19403780926659</v>
+        <v>129.1009268162916</v>
       </c>
       <c r="E12" t="n">
-        <v>82.81586690323377</v>
+        <v>128.7437712936263</v>
       </c>
       <c r="F12" t="n">
-        <v>80.14719551041043</v>
+        <v>127.9140289429786</v>
       </c>
       <c r="G12" t="n">
-        <v>78.25345885314759</v>
+        <v>128.0094821220409</v>
       </c>
       <c r="H12" t="n">
-        <v>76.61172081882731</v>
+        <v>130.2279696182045</v>
       </c>
       <c r="I12" t="n">
-        <v>75.33828341397324</v>
+        <v>130.0700269463721</v>
       </c>
       <c r="J12" t="n">
-        <v>74.28390823327749</v>
+        <v>127.9140289429786</v>
       </c>
       <c r="K12" t="n">
-        <v>73.11188419926198</v>
+        <v>128.8595900191244</v>
       </c>
       <c r="L12" t="n">
-        <v>72.22835771537335</v>
+        <v>128.5210073465148</v>
       </c>
     </row>
     <row r="13">
@@ -1622,37 +1622,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.3940862051627</v>
+        <v>122.6139653496863</v>
       </c>
       <c r="C13" t="n">
-        <v>96.7596436431343</v>
+        <v>123.3947969071721</v>
       </c>
       <c r="D13" t="n">
-        <v>90.93335631479212</v>
+        <v>124.1083559925287</v>
       </c>
       <c r="E13" t="n">
-        <v>87.55573646915116</v>
+        <v>123.8450666053053</v>
       </c>
       <c r="F13" t="n">
-        <v>84.88989868319473</v>
+        <v>124.1083559925287</v>
       </c>
       <c r="G13" t="n">
-        <v>82.99228077645941</v>
+        <v>123.4278232626729</v>
       </c>
       <c r="H13" t="n">
-        <v>81.35191944872713</v>
+        <v>124.2662986643611</v>
       </c>
       <c r="I13" t="n">
-        <v>80.07891676386865</v>
+        <v>123.3620198095597</v>
       </c>
       <c r="J13" t="n">
-        <v>79.02339908563272</v>
+        <v>124.4302028262428</v>
       </c>
       <c r="K13" t="n">
-        <v>77.85168701229361</v>
+        <v>123.9559563269614</v>
       </c>
       <c r="L13" t="n">
-        <v>76.96857513654317</v>
+        <v>124.0697517843964</v>
       </c>
     </row>
     <row r="14">
@@ -1662,37 +1662,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>114.7501308753588</v>
+        <v>125.3983618353664</v>
       </c>
       <c r="C14" t="n">
-        <v>95.95022620336634</v>
+        <v>123.854641741742</v>
       </c>
       <c r="D14" t="n">
-        <v>90.10457480304707</v>
+        <v>124.898622085748</v>
       </c>
       <c r="E14" t="n">
-        <v>86.73816983537014</v>
+        <v>124.4081281121518</v>
       </c>
       <c r="F14" t="n">
-        <v>84.06358420282692</v>
+        <v>123.8176802861423</v>
       </c>
       <c r="G14" t="n">
-        <v>82.17488284044778</v>
+        <v>123.4306032562111</v>
       </c>
       <c r="H14" t="n">
-        <v>80.52996192560188</v>
+        <v>122.833883205254</v>
       </c>
       <c r="I14" t="n">
-        <v>79.25568806481098</v>
+        <v>123.6374492448096</v>
       </c>
       <c r="J14" t="n">
-        <v>78.20493172134769</v>
+        <v>123.1692946876395</v>
       </c>
       <c r="K14" t="n">
-        <v>77.03444595759092</v>
+        <v>124.2426625823515</v>
       </c>
       <c r="L14" t="n">
-        <v>76.1503716490549</v>
+        <v>124.2426625823515</v>
       </c>
     </row>
     <row r="15">
@@ -1702,37 +1702,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>115.491302519932</v>
+        <v>122.7111816644557</v>
       </c>
       <c r="C15" t="n">
-        <v>96.85685995790365</v>
+        <v>123.4920132219414</v>
       </c>
       <c r="D15" t="n">
-        <v>91.03057262956148</v>
+        <v>124.2055723072981</v>
       </c>
       <c r="E15" t="n">
-        <v>87.65295278392051</v>
+        <v>123.9422829200746</v>
       </c>
       <c r="F15" t="n">
-        <v>84.98711499796411</v>
+        <v>124.2055723072981</v>
       </c>
       <c r="G15" t="n">
-        <v>83.08949709122876</v>
+        <v>123.5250395774423</v>
       </c>
       <c r="H15" t="n">
-        <v>81.44913576349649</v>
+        <v>124.3635149791304</v>
       </c>
       <c r="I15" t="n">
-        <v>80.176133078638</v>
+        <v>123.4592361243291</v>
       </c>
       <c r="J15" t="n">
-        <v>79.1206154004021</v>
+        <v>124.5274191410121</v>
       </c>
       <c r="K15" t="n">
-        <v>77.94890332706296</v>
+        <v>124.0531726417308</v>
       </c>
       <c r="L15" t="n">
-        <v>77.06579145131255</v>
+        <v>124.1669680991657</v>
       </c>
     </row>
     <row r="16">
@@ -1742,37 +1742,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.4034004465116</v>
+        <v>122.6232795910353</v>
       </c>
       <c r="C16" t="n">
-        <v>96.76895788448323</v>
+        <v>123.404111148521</v>
       </c>
       <c r="D16" t="n">
-        <v>90.94267055614105</v>
+        <v>124.1176702338777</v>
       </c>
       <c r="E16" t="n">
-        <v>87.56505071050009</v>
+        <v>123.8543808466542</v>
       </c>
       <c r="F16" t="n">
-        <v>84.89921292454369</v>
+        <v>124.1176702338777</v>
       </c>
       <c r="G16" t="n">
-        <v>83.00159501780834</v>
+        <v>123.4371375040219</v>
       </c>
       <c r="H16" t="n">
-        <v>81.36123369007606</v>
+        <v>124.27561290571</v>
       </c>
       <c r="I16" t="n">
-        <v>80.08823100521761</v>
+        <v>123.3713340509087</v>
       </c>
       <c r="J16" t="n">
-        <v>79.03271332698168</v>
+        <v>124.4395170675917</v>
       </c>
       <c r="K16" t="n">
-        <v>77.86100125364254</v>
+        <v>123.9652705683103</v>
       </c>
       <c r="L16" t="n">
-        <v>76.97788937789213</v>
+        <v>124.0790660257453</v>
       </c>
     </row>
   </sheetData>
@@ -1858,37 +1858,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121.3488652197356</v>
+        <v>128.5687443642593</v>
       </c>
       <c r="C2" t="n">
-        <v>102.7144226577072</v>
+        <v>129.349575921745</v>
       </c>
       <c r="D2" t="n">
-        <v>96.88813532936501</v>
+        <v>130.0631350071017</v>
       </c>
       <c r="E2" t="n">
-        <v>93.51051548372408</v>
+        <v>129.7998456198782</v>
       </c>
       <c r="F2" t="n">
-        <v>90.84467769776766</v>
+        <v>130.0631350071017</v>
       </c>
       <c r="G2" t="n">
-        <v>88.94705979103233</v>
+        <v>129.3826022772459</v>
       </c>
       <c r="H2" t="n">
-        <v>87.30669846330004</v>
+        <v>130.221077678934</v>
       </c>
       <c r="I2" t="n">
-        <v>86.0336957784416</v>
+        <v>129.3167988241326</v>
       </c>
       <c r="J2" t="n">
-        <v>84.97817810020565</v>
+        <v>130.3849818408157</v>
       </c>
       <c r="K2" t="n">
-        <v>83.80646602686653</v>
+        <v>129.9107353415343</v>
       </c>
       <c r="L2" t="n">
-        <v>82.9233541511161</v>
+        <v>130.0245307989693</v>
       </c>
     </row>
     <row r="3">
@@ -1898,37 +1898,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3936562109436</v>
+        <v>136.4055817540953</v>
       </c>
       <c r="C3" t="n">
-        <v>98.04377744460383</v>
+        <v>136.5759151470831</v>
       </c>
       <c r="D3" t="n">
-        <v>92.20774578327571</v>
+        <v>135.1146347903007</v>
       </c>
       <c r="E3" t="n">
-        <v>88.82957487724289</v>
+        <v>134.7574792676354</v>
       </c>
       <c r="F3" t="n">
-        <v>86.16090348441956</v>
+        <v>133.9277369169878</v>
       </c>
       <c r="G3" t="n">
-        <v>84.26716682715673</v>
+        <v>134.0231900960501</v>
       </c>
       <c r="H3" t="n">
-        <v>82.62542879283644</v>
+        <v>136.2416775922136</v>
       </c>
       <c r="I3" t="n">
-        <v>81.35199138798239</v>
+        <v>136.0837349203813</v>
       </c>
       <c r="J3" t="n">
-        <v>80.29761620728664</v>
+        <v>133.9277369169878</v>
       </c>
       <c r="K3" t="n">
-        <v>79.12559217327112</v>
+        <v>134.8732979931335</v>
       </c>
       <c r="L3" t="n">
-        <v>78.24206568938249</v>
+        <v>134.5347153205239</v>
       </c>
     </row>
     <row r="4">
@@ -1938,37 +1938,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.6679056269746</v>
+        <v>130.9174369603479</v>
       </c>
       <c r="C4" t="n">
-        <v>103.3876882864081</v>
+        <v>129.6210983821811</v>
       </c>
       <c r="D4" t="n">
-        <v>97.58077423761277</v>
+        <v>128.2764481876667</v>
       </c>
       <c r="E4" t="n">
-        <v>94.20255925877771</v>
+        <v>126.541309825988</v>
       </c>
       <c r="F4" t="n">
-        <v>91.53575982505446</v>
+        <v>127.1508740854023</v>
       </c>
       <c r="G4" t="n">
-        <v>89.64610363684409</v>
+        <v>127.790697192071</v>
       </c>
       <c r="H4" t="n">
-        <v>88.00136709222357</v>
+        <v>128.1498227509775</v>
       </c>
       <c r="I4" t="n">
-        <v>86.7279389780601</v>
+        <v>127.6106529721876</v>
       </c>
       <c r="J4" t="n">
-        <v>85.67752364545467</v>
+        <v>130.1020854459369</v>
       </c>
       <c r="K4" t="n">
-        <v>84.5041208888213</v>
+        <v>126.422317592991</v>
       </c>
       <c r="L4" t="n">
-        <v>83.61988265357789</v>
+        <v>126.2902026201577</v>
       </c>
     </row>
     <row r="5">
@@ -1978,37 +1978,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120.7689457499587</v>
+        <v>131.4171767099663</v>
       </c>
       <c r="C5" t="n">
-        <v>101.9690410779663</v>
+        <v>129.8734566163419</v>
       </c>
       <c r="D5" t="n">
-        <v>96.123389677647</v>
+        <v>130.9174369603479</v>
       </c>
       <c r="E5" t="n">
-        <v>92.75698470997007</v>
+        <v>130.4269429867518</v>
       </c>
       <c r="F5" t="n">
-        <v>90.08239907742683</v>
+        <v>129.8364951607423</v>
       </c>
       <c r="G5" t="n">
-        <v>88.1936977150477</v>
+        <v>129.449418130811</v>
       </c>
       <c r="H5" t="n">
-        <v>86.54877680020179</v>
+        <v>128.8526980798539</v>
       </c>
       <c r="I5" t="n">
-        <v>85.27450293941088</v>
+        <v>129.6562641194095</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2237465959476</v>
+        <v>129.1881095622394</v>
       </c>
       <c r="K5" t="n">
-        <v>83.05326083219084</v>
+        <v>130.2614774569514</v>
       </c>
       <c r="L5" t="n">
-        <v>82.16918652365482</v>
+        <v>130.2614774569514</v>
       </c>
     </row>
     <row r="6">
@@ -2018,37 +2018,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119.349575921745</v>
+        <v>134.8732979931335</v>
       </c>
       <c r="C6" t="n">
-        <v>99.21182262689075</v>
+        <v>136.7532028166874</v>
       </c>
       <c r="D6" t="n">
-        <v>93.36278980129869</v>
+        <v>133.3952817974555</v>
       </c>
       <c r="E6" t="n">
-        <v>89.99012374859842</v>
+        <v>134.7574792676354</v>
       </c>
       <c r="F6" t="n">
-        <v>87.32189272618938</v>
+        <v>134.2206306780076</v>
       </c>
       <c r="G6" t="n">
-        <v>85.42420111968846</v>
+        <v>134.2206306780076</v>
       </c>
       <c r="H6" t="n">
-        <v>83.78400182728406</v>
+        <v>135.2405260633809</v>
       </c>
       <c r="I6" t="n">
-        <v>82.5103730082842</v>
+        <v>133.7429028600476</v>
       </c>
       <c r="J6" t="n">
-        <v>81.45828703881224</v>
+        <v>133.151688338861</v>
       </c>
       <c r="K6" t="n">
-        <v>80.28588874993756</v>
+        <v>133.3125565377956</v>
       </c>
       <c r="L6" t="n">
-        <v>79.4022079498107</v>
+        <v>134.4274766666061</v>
       </c>
     </row>
     <row r="7">
@@ -2058,37 +2058,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121.1551336837269</v>
+        <v>133.3125565377956</v>
       </c>
       <c r="C7" t="n">
-        <v>101.1206668692676</v>
+        <v>131.6904079820787</v>
       </c>
       <c r="D7" t="n">
-        <v>95.29831232128419</v>
+        <v>132.4935154939646</v>
       </c>
       <c r="E7" t="n">
-        <v>91.93100774978154</v>
+        <v>131.2103307213678</v>
       </c>
       <c r="F7" t="n">
-        <v>89.25970843343931</v>
+        <v>131.8047025998865</v>
       </c>
       <c r="G7" t="n">
-        <v>87.36460042369869</v>
+        <v>129.5516097826278</v>
       </c>
       <c r="H7" t="n">
-        <v>85.71970185018338</v>
+        <v>130.512101495977</v>
       </c>
       <c r="I7" t="n">
-        <v>84.44765673538217</v>
+        <v>130.598963287828</v>
       </c>
       <c r="J7" t="n">
-        <v>83.39425214049329</v>
+        <v>131.4171767099663</v>
       </c>
       <c r="K7" t="n">
-        <v>82.22395571895007</v>
+        <v>132.846795117382</v>
       </c>
       <c r="L7" t="n">
-        <v>81.33935036794566</v>
+        <v>131.6904079820787</v>
       </c>
     </row>
     <row r="8">
@@ -2098,37 +2098,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.1551336837269</v>
+        <v>133.3125565377956</v>
       </c>
       <c r="C8" t="n">
-        <v>101.1206668692676</v>
+        <v>131.6904079820787</v>
       </c>
       <c r="D8" t="n">
-        <v>95.29831232128419</v>
+        <v>132.4935154939646</v>
       </c>
       <c r="E8" t="n">
-        <v>91.93100774978154</v>
+        <v>131.2103307213678</v>
       </c>
       <c r="F8" t="n">
-        <v>89.25970843343931</v>
+        <v>131.8047025998865</v>
       </c>
       <c r="G8" t="n">
-        <v>87.36460042369869</v>
+        <v>129.5516097826278</v>
       </c>
       <c r="H8" t="n">
-        <v>85.71970185018338</v>
+        <v>130.512101495977</v>
       </c>
       <c r="I8" t="n">
-        <v>84.44765673538217</v>
+        <v>130.598963287828</v>
       </c>
       <c r="J8" t="n">
-        <v>83.39425214049329</v>
+        <v>131.4171767099663</v>
       </c>
       <c r="K8" t="n">
-        <v>82.22395571895007</v>
+        <v>132.846795117382</v>
       </c>
       <c r="L8" t="n">
-        <v>81.33935036794566</v>
+        <v>131.6904079820787</v>
       </c>
     </row>
     <row r="9">
@@ -2138,37 +2138,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.349575921745</v>
+        <v>134.8732979931335</v>
       </c>
       <c r="C9" t="n">
-        <v>99.21182262689075</v>
+        <v>136.7532028166874</v>
       </c>
       <c r="D9" t="n">
-        <v>93.36278980129869</v>
+        <v>133.3952817974555</v>
       </c>
       <c r="E9" t="n">
-        <v>89.99012374859842</v>
+        <v>134.7574792676354</v>
       </c>
       <c r="F9" t="n">
-        <v>87.32189272618938</v>
+        <v>134.2206306780076</v>
       </c>
       <c r="G9" t="n">
-        <v>85.42420111968846</v>
+        <v>134.2206306780076</v>
       </c>
       <c r="H9" t="n">
-        <v>83.78400182728406</v>
+        <v>135.2405260633809</v>
       </c>
       <c r="I9" t="n">
-        <v>82.5103730082842</v>
+        <v>133.7429028600476</v>
       </c>
       <c r="J9" t="n">
-        <v>81.45828703881224</v>
+        <v>133.151688338861</v>
       </c>
       <c r="K9" t="n">
-        <v>80.28588874993756</v>
+        <v>133.3125565377956</v>
       </c>
       <c r="L9" t="n">
-        <v>79.4022079498107</v>
+        <v>134.4274766666061</v>
       </c>
     </row>
     <row r="10">
@@ -2178,37 +2178,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.7689457499587</v>
+        <v>131.4171767099663</v>
       </c>
       <c r="C10" t="n">
-        <v>101.9690410779663</v>
+        <v>129.8734566163419</v>
       </c>
       <c r="D10" t="n">
-        <v>96.123389677647</v>
+        <v>130.9174369603479</v>
       </c>
       <c r="E10" t="n">
-        <v>92.75698470997007</v>
+        <v>130.4269429867518</v>
       </c>
       <c r="F10" t="n">
-        <v>90.08239907742683</v>
+        <v>129.8364951607423</v>
       </c>
       <c r="G10" t="n">
-        <v>88.1936977150477</v>
+        <v>129.449418130811</v>
       </c>
       <c r="H10" t="n">
-        <v>86.54877680020179</v>
+        <v>128.8526980798539</v>
       </c>
       <c r="I10" t="n">
-        <v>85.27450293941088</v>
+        <v>129.6562641194095</v>
       </c>
       <c r="J10" t="n">
-        <v>84.2237465959476</v>
+        <v>129.1881095622394</v>
       </c>
       <c r="K10" t="n">
-        <v>83.05326083219084</v>
+        <v>130.2614774569514</v>
       </c>
       <c r="L10" t="n">
-        <v>82.16918652365482</v>
+        <v>130.2614774569514</v>
       </c>
     </row>
     <row r="11">
@@ -2218,37 +2218,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120.7689457499587</v>
+        <v>131.4171767099663</v>
       </c>
       <c r="C11" t="n">
-        <v>101.9690410779663</v>
+        <v>129.8734566163419</v>
       </c>
       <c r="D11" t="n">
-        <v>96.123389677647</v>
+        <v>130.9174369603479</v>
       </c>
       <c r="E11" t="n">
-        <v>92.75698470997007</v>
+        <v>130.4269429867518</v>
       </c>
       <c r="F11" t="n">
-        <v>90.08239907742683</v>
+        <v>129.8364951607423</v>
       </c>
       <c r="G11" t="n">
-        <v>88.1936977150477</v>
+        <v>129.449418130811</v>
       </c>
       <c r="H11" t="n">
-        <v>86.54877680020179</v>
+        <v>128.8526980798539</v>
       </c>
       <c r="I11" t="n">
-        <v>85.27450293941088</v>
+        <v>129.6562641194095</v>
       </c>
       <c r="J11" t="n">
-        <v>84.2237465959476</v>
+        <v>129.1881095622394</v>
       </c>
       <c r="K11" t="n">
-        <v>83.05326083219084</v>
+        <v>130.2614774569514</v>
       </c>
       <c r="L11" t="n">
-        <v>82.16918652365482</v>
+        <v>130.2614774569514</v>
       </c>
     </row>
     <row r="12">
@@ -2258,37 +2258,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.3936562109436</v>
+        <v>136.4055817540953</v>
       </c>
       <c r="C12" t="n">
-        <v>98.04377744460383</v>
+        <v>136.5759151470831</v>
       </c>
       <c r="D12" t="n">
-        <v>92.20774578327571</v>
+        <v>135.1146347903007</v>
       </c>
       <c r="E12" t="n">
-        <v>88.82957487724289</v>
+        <v>134.7574792676354</v>
       </c>
       <c r="F12" t="n">
-        <v>86.16090348441956</v>
+        <v>133.9277369169878</v>
       </c>
       <c r="G12" t="n">
-        <v>84.26716682715673</v>
+        <v>134.0231900960501</v>
       </c>
       <c r="H12" t="n">
-        <v>82.62542879283644</v>
+        <v>136.2416775922136</v>
       </c>
       <c r="I12" t="n">
-        <v>81.35199138798239</v>
+        <v>136.0837349203813</v>
       </c>
       <c r="J12" t="n">
-        <v>80.29761620728664</v>
+        <v>133.9277369169878</v>
       </c>
       <c r="K12" t="n">
-        <v>79.12559217327112</v>
+        <v>134.8732979931335</v>
       </c>
       <c r="L12" t="n">
-        <v>78.24206568938249</v>
+        <v>134.5347153205239</v>
       </c>
     </row>
     <row r="13">
@@ -2298,37 +2298,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.3488652197356</v>
+        <v>128.5687443642593</v>
       </c>
       <c r="C13" t="n">
-        <v>102.7144226577072</v>
+        <v>129.349575921745</v>
       </c>
       <c r="D13" t="n">
-        <v>96.88813532936501</v>
+        <v>130.0631350071017</v>
       </c>
       <c r="E13" t="n">
-        <v>93.51051548372408</v>
+        <v>129.7998456198782</v>
       </c>
       <c r="F13" t="n">
-        <v>90.84467769776766</v>
+        <v>130.0631350071017</v>
       </c>
       <c r="G13" t="n">
-        <v>88.94705979103233</v>
+        <v>129.3826022772459</v>
       </c>
       <c r="H13" t="n">
-        <v>87.30669846330004</v>
+        <v>130.221077678934</v>
       </c>
       <c r="I13" t="n">
-        <v>86.0336957784416</v>
+        <v>129.3167988241326</v>
       </c>
       <c r="J13" t="n">
-        <v>84.97817810020565</v>
+        <v>130.3849818408157</v>
       </c>
       <c r="K13" t="n">
-        <v>83.80646602686653</v>
+        <v>129.9107353415343</v>
       </c>
       <c r="L13" t="n">
-        <v>82.9233541511161</v>
+        <v>130.0245307989693</v>
       </c>
     </row>
     <row r="14">
@@ -2338,37 +2338,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>120.7689457499587</v>
+        <v>131.4171767099663</v>
       </c>
       <c r="C14" t="n">
-        <v>101.9690410779663</v>
+        <v>129.8734566163419</v>
       </c>
       <c r="D14" t="n">
-        <v>96.123389677647</v>
+        <v>130.9174369603479</v>
       </c>
       <c r="E14" t="n">
-        <v>92.75698470997007</v>
+        <v>130.4269429867518</v>
       </c>
       <c r="F14" t="n">
-        <v>90.08239907742683</v>
+        <v>129.8364951607423</v>
       </c>
       <c r="G14" t="n">
-        <v>88.1936977150477</v>
+        <v>129.449418130811</v>
       </c>
       <c r="H14" t="n">
-        <v>86.54877680020179</v>
+        <v>128.8526980798539</v>
       </c>
       <c r="I14" t="n">
-        <v>85.27450293941088</v>
+        <v>129.6562641194095</v>
       </c>
       <c r="J14" t="n">
-        <v>84.2237465959476</v>
+        <v>129.1881095622394</v>
       </c>
       <c r="K14" t="n">
-        <v>83.05326083219084</v>
+        <v>130.2614774569514</v>
       </c>
       <c r="L14" t="n">
-        <v>82.16918652365482</v>
+        <v>130.2614774569514</v>
       </c>
     </row>
     <row r="15">
@@ -2378,37 +2378,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.3488652197356</v>
+        <v>128.5687443642593</v>
       </c>
       <c r="C15" t="n">
-        <v>102.7144226577072</v>
+        <v>129.349575921745</v>
       </c>
       <c r="D15" t="n">
-        <v>96.88813532936501</v>
+        <v>130.0631350071017</v>
       </c>
       <c r="E15" t="n">
-        <v>93.51051548372408</v>
+        <v>129.7998456198782</v>
       </c>
       <c r="F15" t="n">
-        <v>90.84467769776766</v>
+        <v>130.0631350071017</v>
       </c>
       <c r="G15" t="n">
-        <v>88.94705979103233</v>
+        <v>129.3826022772459</v>
       </c>
       <c r="H15" t="n">
-        <v>87.30669846330004</v>
+        <v>130.221077678934</v>
       </c>
       <c r="I15" t="n">
-        <v>86.0336957784416</v>
+        <v>129.3167988241326</v>
       </c>
       <c r="J15" t="n">
-        <v>84.97817810020565</v>
+        <v>130.3849818408157</v>
       </c>
       <c r="K15" t="n">
-        <v>83.80646602686653</v>
+        <v>129.9107353415343</v>
       </c>
       <c r="L15" t="n">
-        <v>82.9233541511161</v>
+        <v>130.0245307989693</v>
       </c>
     </row>
     <row r="16">
@@ -2418,37 +2418,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.3488652197356</v>
+        <v>128.5687443642593</v>
       </c>
       <c r="C16" t="n">
-        <v>102.7144226577072</v>
+        <v>129.349575921745</v>
       </c>
       <c r="D16" t="n">
-        <v>96.88813532936501</v>
+        <v>130.0631350071017</v>
       </c>
       <c r="E16" t="n">
-        <v>93.51051548372408</v>
+        <v>129.7998456198782</v>
       </c>
       <c r="F16" t="n">
-        <v>90.84467769776766</v>
+        <v>130.0631350071017</v>
       </c>
       <c r="G16" t="n">
-        <v>88.94705979103233</v>
+        <v>129.3826022772459</v>
       </c>
       <c r="H16" t="n">
-        <v>87.30669846330004</v>
+        <v>130.221077678934</v>
       </c>
       <c r="I16" t="n">
-        <v>86.0336957784416</v>
+        <v>129.3167988241326</v>
       </c>
       <c r="J16" t="n">
-        <v>84.97817810020565</v>
+        <v>130.3849818408157</v>
       </c>
       <c r="K16" t="n">
-        <v>83.80646602686653</v>
+        <v>129.9107353415343</v>
       </c>
       <c r="L16" t="n">
-        <v>82.9233541511161</v>
+        <v>130.0245307989693</v>
       </c>
     </row>
   </sheetData>
